--- a/Pertemuan 10-14/Model_Drift3.xlsx
+++ b/Pertemuan 10-14/Model_Drift3.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -78,6 +78,138 @@
   </si>
   <si>
     <t xml:space="preserve">Parameter yang tidak signifikan adalah ar3, ma3, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, NA, ma1, NA, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(3,1,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(4,1,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, NA, ar3, ar4, ma1, NA, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(5,1,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar2, ma1, ma2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar3, ar4, ar5, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(3,1,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar2, ma2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar3, ma1, ma3, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar5, ma1, ma4, ma5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar2, ar3, ar4, ma2, ma3, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, ar2, ar3, NA, NA, NA, ma2, ma3, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, ar5, NA, NA, NA, ma5, NA, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, ar3, NA, NA, ma3, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(4,1,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, ar2, NA, ar4, NA, ma2, NA, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(5,1,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar2, NA, NA, ma1, ma2, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, ar5, NA, NA, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(6,1,5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar5, ma1, ma5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar2, ar3, ar4, ar6, ma2, ma3, ma4, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar3, ma1, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, NA, NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, NA, NA, NA, NA, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar2, ar6, ma2, ma6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar3, ar4, ar5, ma1, ma3, ma4, ma5, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, NA, NA, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, ar3, ar4, ar5, NA, NA, NA, ma4, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar2, ar3, ar4, ar5, NA, ma1, ma2, ma3, ma4, ma5, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, ar2, NA, NA, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar2, ar3, ar4, ma1, ma2, ma3, ma4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar2, ar3, ar4, ar5, ma1, ma2, ma3, ma4, ma5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar2, ar3, ar4, ar5, ar6, ma1, ma2, ma4, ma5, ma6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ma3, drift</t>
   </si>
 </sst>
 </file>
@@ -540,7 +672,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3649.53376486325</v>
+        <v>4017.19784864473</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -554,55 +686,55 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>3653.51959555716</v>
+        <v>4020.38076659755</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B4" t="n">
-        <v>3655.05826466572</v>
+        <v>4020.38114002394</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>3647.60177417459</v>
+        <v>4024.3800955113</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>3648.67689193321</v>
+        <v>4018.94898208029</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -610,13 +742,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>3646.24595943042</v>
+        <v>4017.69924034219</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -652,7 +784,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3649.53376486325</v>
+        <v>3620.60003566762</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -666,27 +798,27 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>3653.51959555716</v>
+        <v>3622.20727667282</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>3655.05826466572</v>
+        <v>3623.89157455342</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -694,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>3647.60177417459</v>
+        <v>3627.7256113626</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -708,13 +840,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>3648.67689193321</v>
+        <v>3625.89021235764</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -722,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>3646.24595943042</v>
+        <v>3627.7611387728</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -764,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3649.53376486325</v>
+        <v>4991.25722195595</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -778,69 +910,69 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>3653.51959555716</v>
+        <v>4995.13733951422</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>3655.05826466572</v>
+        <v>4999.13647563598</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>3647.60177417459</v>
+        <v>4998.93852249764</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B6" t="n">
-        <v>3648.67689193321</v>
+        <v>4996.73212415989</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>3646.24595943042</v>
+        <v>5000.25989494139</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -876,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3649.53376486325</v>
+        <v>4584.26303806161</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -890,7 +1022,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>3653.51959555716</v>
+        <v>4588.24617184701</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -904,13 +1036,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>3655.05826466572</v>
+        <v>4588.77288441595</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -918,13 +1050,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>3647.60177417459</v>
+        <v>4583.16981206643</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -932,13 +1064,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>3648.67689193321</v>
+        <v>4585.11736432647</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -946,13 +1078,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>3646.24595943042</v>
+        <v>4585.6697235814</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3649.53376486325</v>
+        <v>6188.91171537356</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1002,27 +1134,27 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>3653.51959555716</v>
+        <v>6192.90052433945</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>3655.05826466572</v>
+        <v>6175.58907634669</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -1030,13 +1162,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>3647.60177417459</v>
+        <v>6178.82399284303</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -1044,13 +1176,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>3648.67689193321</v>
+        <v>6180.13378141679</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -1058,13 +1190,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>3646.24595943042</v>
+        <v>6177.80255148382</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1100,13 +1232,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3649.53376486325</v>
+        <v>5072.76274497512</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -1114,27 +1246,27 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>3653.51959555716</v>
+        <v>5076.70245938524</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>3655.05826466572</v>
+        <v>5075.72828646516</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -1142,13 +1274,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>3647.60177417459</v>
+        <v>5064.34208321318</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1156,13 +1288,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>3648.67689193321</v>
+        <v>5064.22451241972</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1170,13 +1302,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>3646.24595943042</v>
+        <v>5066.40461569633</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
